--- a/public/dat/B. TECH. I SEM DEC 19.xlsx
+++ b/public/dat/B. TECH. I SEM DEC 19.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1176" yWindow="1176" windowWidth="11520" windowHeight="7872" activeTab="5"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">EE!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">ME!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2619,13 +2619,16 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2637,13 +2640,10 @@
     <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3508,7 +3508,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{301FFCFF-B459-46FA-87AF-8104A3FAC07F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{301FFCFF-B459-46FA-87AF-8104A3FAC07F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11092,76 +11092,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="50" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="156"/>
-      <c r="Y1" s="156"/>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="156"/>
-      <c r="AB1" s="156"/>
-      <c r="AC1" s="156"/>
-      <c r="AD1" s="156"/>
-      <c r="AE1" s="156"/>
-      <c r="AF1" s="156"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="158"/>
     </row>
     <row r="2" spans="1:32" s="50" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156"/>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="156"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="158"/>
     </row>
     <row r="3" spans="1:32" s="50" customFormat="1" ht="66.75" customHeight="1">
       <c r="A3" s="148" t="s">
@@ -15941,19 +15941,14 @@
       <c r="AF51" s="8"/>
     </row>
     <row r="54" spans="1:32" ht="34.5" customHeight="1">
-      <c r="B54" s="157"/>
-      <c r="C54" s="158"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="158"/>
-      <c r="F54" s="158"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="157"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
     <mergeCell ref="A3:AF3"/>
@@ -15966,6 +15961,11 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="Q8:Q50">
     <cfRule type="cellIs" dxfId="61" priority="21" stopIfTrue="1" operator="lessThan">
@@ -16072,76 +16072,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="57" customHeight="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="156"/>
-      <c r="Y1" s="156"/>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="156"/>
-      <c r="AB1" s="156"/>
-      <c r="AC1" s="156"/>
-      <c r="AD1" s="156"/>
-      <c r="AE1" s="156"/>
-      <c r="AF1" s="156"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="158"/>
     </row>
     <row r="2" spans="1:32" ht="57" customHeight="1">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156"/>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="156"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="158"/>
     </row>
     <row r="3" spans="1:32" ht="57" customHeight="1">
       <c r="A3" s="148" t="s">
@@ -21694,40 +21694,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="36" customHeight="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="160" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="159"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
     </row>
     <row r="2" spans="1:32" ht="36" customHeight="1">
       <c r="A2" s="145"/>
@@ -21764,25 +21764,25 @@
       <c r="AF2" s="145"/>
     </row>
     <row r="3" spans="1:32" ht="32.25" customHeight="1">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
+      <c r="A3" s="161"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="161"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="162"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="162"/>
       <c r="T3" s="29"/>
       <c r="U3" s="29"/>
       <c r="V3" s="29"/>
@@ -27728,22 +27728,14 @@
       <c r="AF62" s="66"/>
     </row>
     <row r="64" spans="1:32" ht="37.5" customHeight="1">
-      <c r="B64" s="162"/>
-      <c r="C64" s="162"/>
-      <c r="D64" s="162"/>
-      <c r="E64" s="162"/>
-      <c r="F64" s="162"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="159"/>
+      <c r="D64" s="159"/>
+      <c r="E64" s="159"/>
+      <c r="F64" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="N3:S3"/>
@@ -27753,6 +27745,14 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="C4:C7"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J62 M8:M62">
     <cfRule type="cellIs" dxfId="25" priority="16" stopIfTrue="1" operator="lessThan">
@@ -33359,6 +33359,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
@@ -33375,7 +33376,6 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="AB8:AB52 AE8:AE52">
     <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
@@ -33429,8 +33429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -33450,76 +33450,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="63.75" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="164"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="164"/>
     </row>
     <row r="2" spans="1:32" ht="63.75" customHeight="1">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="164"/>
     </row>
     <row r="3" spans="1:32" ht="63.75" customHeight="1">
       <c r="A3" s="165" t="s">
@@ -34014,11 +34014,11 @@
         <v>92</v>
       </c>
       <c r="O9" s="108">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="P9" s="94">
         <f t="shared" ref="P9:P55" si="2">SUM(N9:O9)</f>
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="108">
         <v>44</v>
@@ -34065,7 +34065,7 @@
       </c>
       <c r="AD9" s="94">
         <f t="shared" ref="AD9:AD55" si="7">AB9+Y9+V9+P9+M9+J9</f>
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="AE9" s="63" t="s">
         <v>503</v>
@@ -39027,13 +39027,17 @@
       </c>
     </row>
     <row r="58" spans="1:32" ht="39.75" customHeight="1">
-      <c r="B58" s="164"/>
-      <c r="C58" s="164"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="164"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:AF2"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A3:AF3"/>
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
@@ -39047,10 +39051,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A3:AF3"/>
-    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J55 M8:M55 P8:P55">
     <cfRule type="cellIs" dxfId="7" priority="16" stopIfTrue="1" operator="lessThan">

--- a/public/dat/B. TECH. I SEM DEC 19.xlsx
+++ b/public/dat/B. TECH. I SEM DEC 19.xlsx
@@ -2619,16 +2619,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2640,13 +2637,16 @@
     <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3508,7 +3508,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{301FFCFF-B459-46FA-87AF-8104A3FAC07F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{301FFCFF-B459-46FA-87AF-8104A3FAC07F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11092,76 +11092,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="50" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="158"/>
-      <c r="AB1" s="158"/>
-      <c r="AC1" s="158"/>
-      <c r="AD1" s="158"/>
-      <c r="AE1" s="158"/>
-      <c r="AF1" s="158"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="156"/>
     </row>
     <row r="2" spans="1:32" s="50" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
-      <c r="AF2" s="158"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="156"/>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="156"/>
+      <c r="AD2" s="156"/>
+      <c r="AE2" s="156"/>
+      <c r="AF2" s="156"/>
     </row>
     <row r="3" spans="1:32" s="50" customFormat="1" ht="66.75" customHeight="1">
       <c r="A3" s="148" t="s">
@@ -15941,14 +15941,19 @@
       <c r="AF51" s="8"/>
     </row>
     <row r="54" spans="1:32" ht="34.5" customHeight="1">
-      <c r="B54" s="156"/>
-      <c r="C54" s="157"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
+      <c r="B54" s="157"/>
+      <c r="C54" s="158"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="158"/>
+      <c r="F54" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
     <mergeCell ref="A3:AF3"/>
@@ -15961,11 +15966,6 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="Q8:Q50">
     <cfRule type="cellIs" dxfId="61" priority="21" stopIfTrue="1" operator="lessThan">
@@ -16072,76 +16072,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="57" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="158"/>
-      <c r="AB1" s="158"/>
-      <c r="AC1" s="158"/>
-      <c r="AD1" s="158"/>
-      <c r="AE1" s="158"/>
-      <c r="AF1" s="158"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="156"/>
     </row>
     <row r="2" spans="1:32" ht="57" customHeight="1">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
-      <c r="AF2" s="158"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="156"/>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="156"/>
+      <c r="AD2" s="156"/>
+      <c r="AE2" s="156"/>
+      <c r="AF2" s="156"/>
     </row>
     <row r="3" spans="1:32" ht="57" customHeight="1">
       <c r="A3" s="148" t="s">
@@ -21694,40 +21694,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="36" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="159" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="160"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="159"/>
+      <c r="W1" s="159"/>
+      <c r="X1" s="159"/>
+      <c r="Y1" s="159"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="159"/>
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="159"/>
+      <c r="AD1" s="159"/>
+      <c r="AE1" s="159"/>
+      <c r="AF1" s="159"/>
     </row>
     <row r="2" spans="1:32" ht="36" customHeight="1">
       <c r="A2" s="145"/>
@@ -21764,25 +21764,25 @@
       <c r="AF2" s="145"/>
     </row>
     <row r="3" spans="1:32" ht="32.25" customHeight="1">
-      <c r="A3" s="161"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="161"/>
       <c r="T3" s="29"/>
       <c r="U3" s="29"/>
       <c r="V3" s="29"/>
@@ -27728,14 +27728,22 @@
       <c r="AF62" s="66"/>
     </row>
     <row r="64" spans="1:32" ht="37.5" customHeight="1">
-      <c r="B64" s="159"/>
-      <c r="C64" s="159"/>
-      <c r="D64" s="159"/>
-      <c r="E64" s="159"/>
-      <c r="F64" s="159"/>
+      <c r="B64" s="162"/>
+      <c r="C64" s="162"/>
+      <c r="D64" s="162"/>
+      <c r="E64" s="162"/>
+      <c r="F64" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="N3:S3"/>
@@ -27745,14 +27753,6 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="C4:C7"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J62 M8:M62">
     <cfRule type="cellIs" dxfId="25" priority="16" stopIfTrue="1" operator="lessThan">
@@ -33359,11 +33359,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:AH2"/>
     <mergeCell ref="A3:AH3"/>
@@ -33376,6 +33371,11 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="F4:F7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="AB8:AB52 AE8:AE52">
     <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
@@ -33429,8 +33429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -33450,112 +33450,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="63.75" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="164"/>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
     </row>
     <row r="2" spans="1:32" ht="63.75" customHeight="1">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164"/>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="164"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="163"/>
+      <c r="AF2" s="163"/>
     </row>
     <row r="3" spans="1:32" ht="63.75" customHeight="1">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="164" t="s">
         <v>486</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="165"/>
-      <c r="AF3" s="165"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="164"/>
+      <c r="T3" s="164"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="164"/>
+      <c r="W3" s="164"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="164"/>
+      <c r="AF3" s="164"/>
     </row>
     <row r="4" spans="1:32" ht="181.5" customHeight="1">
       <c r="A4" s="149" t="s">
@@ -36160,11 +36160,11 @@
         <v>58</v>
       </c>
       <c r="O29" s="108">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="P29" s="94">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="Q29" s="108">
         <v>29</v>
@@ -36211,7 +36211,7 @@
       </c>
       <c r="AD29" s="94">
         <f t="shared" si="7"/>
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="AE29" s="63" t="s">
         <v>503</v>
@@ -39027,13 +39027,14 @@
       </c>
     </row>
     <row r="58" spans="1:32" ht="39.75" customHeight="1">
-      <c r="B58" s="163"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
-      <c r="E58" s="163"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
+      <c r="E58" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="A2:AF2"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A3:AF3"/>
@@ -39050,7 +39051,6 @@
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J55 M8:M55 P8:P55">
     <cfRule type="cellIs" dxfId="7" priority="16" stopIfTrue="1" operator="lessThan">
